--- a/medicine/Enfance/Lucile_Thibaudier/Lucile_Thibaudier.xlsx
+++ b/medicine/Enfance/Lucile_Thibaudier/Lucile_Thibaudier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucile Thibaudier est une illustratrice française et dessinatrice de bande dessinée pour la jeunesse née le 9 janvier 1984 en Nord-Isère. Ses premiers travaux sont publiés en 2007.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Nord Isère, Lucile Thibaudier est issue d'une mère bibliothécaire[1]. Désireuse de devenir vétérinaire[2], elle entame d'abord des études scientifiques[Lesquelles ?] mais elle se réoriente et intègre l'école Émile-Cohl, où elle passe quatre ans et dont elle est diplômée en 2006[3] ; elle se déclare influencée par Caroline, Yoko Tsuno et Hans de Beer[1]. Elle commence en 2007 sa carrière d'illustratrice avec un livre sur la sorcellerie : Grimoires, sortilèges et envoûtements, le manuel du sorcier[1]. À partir de 2011, elle entreprend seule la série Pacotille, Ratapène et Comédon[3]. Elle participe également à des ouvrages collectifs[1].
-Elle s'associe avec l'auteur jeunesse Joris Chamblain, qui écrit pour elle la série Sorcières sorcières, première bande dessinée de l'autrice publiée à partir de 2013[2] ; il s'agit d'enquêtes, d'un « thriller sympathique évoluant dans un univers magique et familial »[4].
-De nouveau avec Chamblain, elle dessine à partir de 2015 la série Enola &amp; les animaux extraordinaires. Il s'agit d'une vétérinaire « dont la spécialité est les animaux des contes et légendes »[2],[5]. Le volume 1, La gargouille qui partait en vadrouille[6], remporte le prix Prix Bull'gomme 53 en 2016[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Nord Isère, Lucile Thibaudier est issue d'une mère bibliothécaire. Désireuse de devenir vétérinaire, elle entame d'abord des études scientifiques[Lesquelles ?] mais elle se réoriente et intègre l'école Émile-Cohl, où elle passe quatre ans et dont elle est diplômée en 2006 ; elle se déclare influencée par Caroline, Yoko Tsuno et Hans de Beer. Elle commence en 2007 sa carrière d'illustratrice avec un livre sur la sorcellerie : Grimoires, sortilèges et envoûtements, le manuel du sorcier. À partir de 2011, elle entreprend seule la série Pacotille, Ratapène et Comédon. Elle participe également à des ouvrages collectifs.
+Elle s'associe avec l'auteur jeunesse Joris Chamblain, qui écrit pour elle la série Sorcières sorcières, première bande dessinée de l'autrice publiée à partir de 2013 ; il s'agit d'enquêtes, d'un « thriller sympathique évoluant dans un univers magique et familial ».
+De nouveau avec Chamblain, elle dessine à partir de 2015 la série Enola &amp; les animaux extraordinaires. Il s'agit d'une vétérinaire « dont la spécialité est les animaux des contes et légendes »,. Le volume 1, La gargouille qui partait en vadrouille, remporte le prix Prix Bull'gomme 53 en 2016.
 </t>
         </is>
       </c>
@@ -546,25 +560,98 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Illustration
-Sauf mention contraire, Lucile Thibaudier est illustratrice.
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, Lucile Thibaudier est illustratrice.
 Grimoires, sortilèges &amp; envoûtements : le manuel du sorcier ou comment tout savoir au sujet des philtres d'amour, parfums d'envoûtement, miroirs et portraits ensorcelés et pactes diaboliques..., texte d'Édouard Brasey, Fetjaine, 2007  (ISBN 978-2-35425-016-4)
-Jusqu'aux portes de la ville : je les ai suivis, puis je suis reparti, texte d'Alexandra Chauvelon-Bueb, Éd. Bower, coll. «  Chemins d'ailleurs », 2007  (ISBN 978-2-35541-004-8)
-Texte et illustration
-Pacotille, Ratapène et Comédon, éd. Alpha book
+Jusqu'aux portes de la ville : je les ai suivis, puis je suis reparti, texte d'Alexandra Chauvelon-Bueb, Éd. Bower, coll. «  Chemins d'ailleurs », 2007  (ISBN 978-2-35541-004-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lucile_Thibaudier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucile_Thibaudier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Texte et illustration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pacotille, Ratapène et Comédon, éd. Alpha book
 Pacotille, Ratapène et Comédon, 2011  (ISBN 978-2-36421-006-6)
 Le maudit sapin, 2011  (ISBN 978-2-36421-013-4)
-La licorne guimauve, 2012  (ISBN 978-2-36421-024-0)
-Bande dessinée
-Sorcières sorcières, scénario de Joris Chamblain
-Le mystère du jeteur de sorts [7], Bac@Bd, coll. Ôtalents, 2013  (ISBN 978-2-919274-11-6)
+La licorne guimauve, 2012  (ISBN 978-2-36421-024-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lucile_Thibaudier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucile_Thibaudier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sorcières sorcières, scénario de Joris Chamblain
+Le mystère du jeteur de sorts , Bac@Bd, coll. Ôtalents, 2013  (ISBN 978-2-919274-11-6)
 Le mystère des mangeurs d'histoires, Kennes, 2015  (ISBN 978-2-87580-180-7)
-Le mystère des trois marchands[8], Kennes, 2016  (ISBN 978-2-87580-322-1)
+Le mystère des trois marchands, Kennes, 2016  (ISBN 978-2-87580-322-1)
 Le mystère des fleurs de tempête, Kennes, 2017  (ISBN 978-2-87580-441-9)
 Le Mystère du monstre noir, Kennes, 2019  (ISBN 978-2-87580-848-6)
-Enola &amp; les animaux extraordinaires[9], scénario de Joris Chamblain, Les éditions de la Gouttière
-La Gargouille qui partait en vadrouille[10], 2015  (ISBN 979-10-92111-18-7)
-La licorne qui dépassait les bornes[11],[12], 2016  (ISBN 979-10-92111-28-6)
+Enola &amp; les animaux extraordinaires, scénario de Joris Chamblain, Les éditions de la Gouttière
+La Gargouille qui partait en vadrouille, 2015  (ISBN 979-10-92111-18-7)
+La licorne qui dépassait les bornes 2016  (ISBN 979-10-92111-28-6)
 Le Kraken qui avait mauvaise haleine, 2017  (ISBN 979-10-92111-52-1)
 Le yéti qui avait perdu l'appétit , 2018  (ISBN 979-10-92111-68-2)
 Le loup-garou qui faisait d'une pierre deux coups, 2019  (ISBN 979-10-92111-91-0)
@@ -572,35 +659,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Lucile_Thibaudier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lucile_Thibaudier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2014 : Festival de la Bulle d'Or, prix Bulle de Gône pour Sorcières Sorcières[13] ;
-2015 : BDécines, prix du meilleur album jeunesse pour Enola[14]
-2016 : Prix Bull'gomme 53, avec Joris Chamblain, pour La gargouille qui partait en vadrouille[2].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2014 : Festival de la Bulle d'Or, prix Bulle de Gône pour Sorcières Sorcières ;
+2015 : BDécines, prix du meilleur album jeunesse pour Enola
+2016 : Prix Bull'gomme 53, avec Joris Chamblain, pour La gargouille qui partait en vadrouille.</t>
         </is>
       </c>
     </row>
